--- a/biology/Médecine/Forme_galénique/Forme_galénique.xlsx
+++ b/biology/Médecine/Forme_galénique/Forme_galénique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Forme_gal%C3%A9nique</t>
+          <t>Forme_galénique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une forme galénique (du nom de Galien, médecin grec du IIe siècle), ou forme médicamenteuse, ou forme pharmaceutique, est la forme sous laquelle sont mis les principes actifs et les excipients (matières inactives) pour constituer un médicament ; l'usage du terme « forme posologique » n’est pas recommandé, car c’est un calque de l’anglais dosage form. Elle correspond à l’aspect physique final du médicament tel qu’il sera utilisé chez un patient : comprimés, gélules, sachets, solutions buvables, suspensions injectables, etc.
-Les noms des formes pharmaceutiques ont été harmonisés en Europe[évasif], afin d’éviter les confusions et éventuellement les erreurs de manipulation[1]. Par exemple, un liquide oral tel qu'un bain de bouche, qui ne doit pas être avalé, ne doit pas être confondu avec une solution buvable.
+Les noms des formes pharmaceutiques ont été harmonisés en Europe[évasif], afin d’éviter les confusions et éventuellement les erreurs de manipulation. Par exemple, un liquide oral tel qu'un bain de bouche, qui ne doit pas être avalé, ne doit pas être confondu avec une solution buvable.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Forme_gal%C3%A9nique</t>
+          <t>Forme_galénique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Formes solides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bâton
 Comprimé enrobé (dragée) ou non, effervescent, soluble, orodispersible, gastrorésistant ou à libération modifiée
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Forme_gal%C3%A9nique</t>
+          <t>Forme_galénique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Formes souples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Systèmes transdermiques
 Gélules</t>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Forme_gal%C3%A9nique</t>
+          <t>Forme_galénique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Préparations semi-solides pour application cutanée (PSSAC)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cataplasme
 Collodion
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Forme_gal%C3%A9nique</t>
+          <t>Forme_galénique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +649,9 @@
           <t>Formes liquides</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alcoolature
 Ampoule, contenant une dose de liquide buvable ou injectable selon le cas
@@ -660,7 +680,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Forme_gal%C3%A9nique</t>
+          <t>Forme_galénique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,7 +698,9 @@
           <t>Préparations pharmaceutiques pressurisées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Préparation pour inhalation
 Nébuliseur
@@ -693,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Forme_gal%C3%A9nique</t>
+          <t>Forme_galénique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -711,7 +733,9 @@
           <t>Autres formes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Comprimé avec applicateur buccal
 Vernis (pour traiter les mycoses unguéales)
